--- a/results/Homeopathy_excluded/mod2.galtan_corrupt.corrupt.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod2.galtan_corrupt.corrupt.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.134105379932016</v>
+        <v>-0.134104265497321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05203016463806</v>
+        <v>0.0520298890623741</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.236082628732303</v>
+        <v>-0.236080974179188</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0321281311317291</v>
+        <v>-0.032127556815453</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.577454460598</v>
+        <v>-2.5774466929298</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00995309954816623</v>
+        <v>0.0099533232486888</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.119070167004184</v>
+        <v>0.119070766498764</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0588636231518949</v>
+        <v>0.0588631940659496</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00369958562693147</v>
+        <v>0.00370102611451133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.234440748381436</v>
+        <v>0.234440506883017</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02281410196121</v>
+        <v>2.02283903189757</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04309231721067</v>
+        <v>0.0430897460322263</v>
       </c>
     </row>
   </sheetData>
